--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H2">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I2">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J2">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>7066.70551611517</v>
+        <v>7831.511033812804</v>
       </c>
       <c r="R2">
-        <v>7066.70551611517</v>
+        <v>70483.59930431523</v>
       </c>
       <c r="S2">
-        <v>0.01342993412748154</v>
+        <v>0.0140670003698191</v>
       </c>
       <c r="T2">
-        <v>0.01342993412748154</v>
+        <v>0.01406700036981909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H3">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I3">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J3">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>7522.095069801366</v>
+        <v>8254.702735918119</v>
       </c>
       <c r="R3">
-        <v>7522.095069801366</v>
+        <v>74292.32462326306</v>
       </c>
       <c r="S3">
-        <v>0.01429538008308305</v>
+        <v>0.01482713948017946</v>
       </c>
       <c r="T3">
-        <v>0.01429538008308305</v>
+        <v>0.01482713948017946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H4">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I4">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J4">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>4850.434777830733</v>
+        <v>5333.273476210537</v>
       </c>
       <c r="R4">
-        <v>4850.434777830733</v>
+        <v>47999.46128589483</v>
       </c>
       <c r="S4">
-        <v>0.00921801812844222</v>
+        <v>0.009579653228896068</v>
       </c>
       <c r="T4">
-        <v>0.00921801812844222</v>
+        <v>0.009579653228896068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H5">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I5">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J5">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>3760.922693317501</v>
+        <v>4159.820044543423</v>
       </c>
       <c r="R5">
-        <v>3760.922693317501</v>
+        <v>37438.3804008908</v>
       </c>
       <c r="S5">
-        <v>0.00714745278611399</v>
+        <v>0.007471890143846785</v>
       </c>
       <c r="T5">
-        <v>0.00714745278611399</v>
+        <v>0.007471890143846784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H6">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I6">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J6">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>2486.338798065018</v>
+        <v>2857.52032504081</v>
       </c>
       <c r="R6">
-        <v>2486.338798065018</v>
+        <v>25717.68292536729</v>
       </c>
       <c r="S6">
-        <v>0.004725167364122917</v>
+        <v>0.005132692694368166</v>
       </c>
       <c r="T6">
-        <v>0.004725167364122917</v>
+        <v>0.005132692694368165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>255.691236986877</v>
+        <v>255.905248</v>
       </c>
       <c r="H7">
-        <v>255.691236986877</v>
+        <v>767.715744</v>
       </c>
       <c r="I7">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J7">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>41449.72323147458</v>
+        <v>41894.75620729903</v>
       </c>
       <c r="R7">
-        <v>41449.72323147458</v>
+        <v>377052.8058656912</v>
       </c>
       <c r="S7">
-        <v>0.07877320645831372</v>
+        <v>0.07525157642210929</v>
       </c>
       <c r="T7">
-        <v>0.07877320645831372</v>
+        <v>0.07525157642210928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>255.691236986877</v>
+        <v>255.905248</v>
       </c>
       <c r="H8">
-        <v>255.691236986877</v>
+        <v>767.715744</v>
       </c>
       <c r="I8">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J8">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>44120.80821156219</v>
+        <v>44158.62496929225</v>
       </c>
       <c r="R8">
-        <v>44120.80821156219</v>
+        <v>397427.6247236303</v>
       </c>
       <c r="S8">
-        <v>0.08384947506037688</v>
+        <v>0.07931794912779599</v>
       </c>
       <c r="T8">
-        <v>0.08384947506037688</v>
+        <v>0.07931794912779598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>255.691236986877</v>
+        <v>255.905248</v>
       </c>
       <c r="H9">
-        <v>255.691236986877</v>
+        <v>767.715744</v>
       </c>
       <c r="I9">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J9">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>28450.19912530994</v>
+        <v>28530.40634278642</v>
       </c>
       <c r="R9">
-        <v>28450.19912530994</v>
+        <v>256773.6570850778</v>
       </c>
       <c r="S9">
-        <v>0.05406823579889192</v>
+        <v>0.05124646250797312</v>
       </c>
       <c r="T9">
-        <v>0.05406823579889192</v>
+        <v>0.05124646250797312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>255.691236986877</v>
+        <v>255.905248</v>
       </c>
       <c r="H10">
-        <v>255.691236986877</v>
+        <v>767.715744</v>
       </c>
       <c r="I10">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J10">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>22059.67184814579</v>
+        <v>22253.00403459129</v>
       </c>
       <c r="R10">
-        <v>22059.67184814579</v>
+        <v>200277.0363113215</v>
       </c>
       <c r="S10">
-        <v>0.04192334590975313</v>
+        <v>0.0399709602186157</v>
       </c>
       <c r="T10">
-        <v>0.04192334590975313</v>
+        <v>0.03997096021861569</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>255.691236986877</v>
+        <v>255.905248</v>
       </c>
       <c r="H11">
-        <v>255.691236986877</v>
+        <v>767.715744</v>
       </c>
       <c r="I11">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J11">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>14583.60685958327</v>
+        <v>15286.33706293877</v>
       </c>
       <c r="R11">
-        <v>14583.60685958327</v>
+        <v>137577.0335664489</v>
       </c>
       <c r="S11">
-        <v>0.02771544378333753</v>
+        <v>0.02745739719820703</v>
       </c>
       <c r="T11">
-        <v>0.02771544378333753</v>
+        <v>0.02745739719820702</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>295.40478970594</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H12">
-        <v>295.40478970594</v>
+        <v>887.288879</v>
       </c>
       <c r="I12">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J12">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>47887.62774530123</v>
+        <v>48419.94131509258</v>
       </c>
       <c r="R12">
-        <v>47887.62774530123</v>
+        <v>435779.4718358333</v>
       </c>
       <c r="S12">
-        <v>0.09100813450824306</v>
+        <v>0.08697214744961147</v>
       </c>
       <c r="T12">
-        <v>0.09100813450824306</v>
+        <v>0.08697214744961147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>295.40478970594</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H13">
-        <v>295.40478970594</v>
+        <v>887.288879</v>
       </c>
       <c r="I13">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J13">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>50973.58135922964</v>
+        <v>51036.41178835161</v>
       </c>
       <c r="R13">
-        <v>50973.58135922964</v>
+        <v>459327.7060951645</v>
       </c>
       <c r="S13">
-        <v>0.09687284100563584</v>
+        <v>0.09167186516130783</v>
       </c>
       <c r="T13">
-        <v>0.09687284100563584</v>
+        <v>0.09167186516130783</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>295.40478970594</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H14">
-        <v>295.40478970594</v>
+        <v>887.288879</v>
       </c>
       <c r="I14">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J14">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>32869.0384103216</v>
+        <v>32974.06945103037</v>
       </c>
       <c r="R14">
-        <v>32869.0384103216</v>
+        <v>296766.6250592733</v>
       </c>
       <c r="S14">
-        <v>0.06246602744059855</v>
+        <v>0.05922819302168043</v>
       </c>
       <c r="T14">
-        <v>0.06246602744059855</v>
+        <v>0.05922819302168043</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>295.40478970594</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H15">
-        <v>295.40478970594</v>
+        <v>887.288879</v>
       </c>
       <c r="I15">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J15">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>25485.94468889837</v>
+        <v>25718.95022154838</v>
       </c>
       <c r="R15">
-        <v>25485.94468889837</v>
+        <v>231470.5519939354</v>
       </c>
       <c r="S15">
-        <v>0.0484348127381292</v>
+        <v>0.04619651057322737</v>
       </c>
       <c r="T15">
-        <v>0.0484348127381292</v>
+        <v>0.04619651057322737</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>295.40478970594</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H16">
-        <v>295.40478970594</v>
+        <v>887.288879</v>
       </c>
       <c r="I16">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J16">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>16848.70928028873</v>
+        <v>17667.21209327067</v>
       </c>
       <c r="R16">
-        <v>16848.70928028873</v>
+        <v>159004.9088394361</v>
       </c>
       <c r="S16">
-        <v>0.03202016204741434</v>
+        <v>0.03173393716444983</v>
       </c>
       <c r="T16">
-        <v>0.03202016204741434</v>
+        <v>0.03173393716444983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.802623672374</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H17">
-        <v>140.802623672374</v>
+        <v>450.723769</v>
       </c>
       <c r="I17">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J17">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>22825.30230703569</v>
+        <v>24596.29435330424</v>
       </c>
       <c r="R17">
-        <v>22825.30230703569</v>
+        <v>221366.6491797382</v>
       </c>
       <c r="S17">
-        <v>0.04337838979200301</v>
+        <v>0.04417999033267792</v>
       </c>
       <c r="T17">
-        <v>0.04337838979200301</v>
+        <v>0.04417999033267791</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>140.802623672374</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H18">
-        <v>140.802623672374</v>
+        <v>450.723769</v>
       </c>
       <c r="I18">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J18">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>24296.20047969192</v>
+        <v>25925.40538027173</v>
       </c>
       <c r="R18">
-        <v>24296.20047969192</v>
+        <v>233328.6484224456</v>
       </c>
       <c r="S18">
-        <v>0.04617376106111253</v>
+        <v>0.04656734639042451</v>
       </c>
       <c r="T18">
-        <v>0.04617376106111253</v>
+        <v>0.04656734639042451</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>140.802623672374</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H19">
-        <v>140.802623672374</v>
+        <v>450.723769</v>
       </c>
       <c r="I19">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J19">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>15666.79690728203</v>
+        <v>16750.12187573712</v>
       </c>
       <c r="R19">
-        <v>15666.79690728203</v>
+        <v>150751.0968816341</v>
       </c>
       <c r="S19">
-        <v>0.02977399439860852</v>
+        <v>0.03008665500223327</v>
       </c>
       <c r="T19">
-        <v>0.02977399439860852</v>
+        <v>0.03008665500223327</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.802623672374</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H20">
-        <v>140.802623672374</v>
+        <v>450.723769</v>
       </c>
       <c r="I20">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J20">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>12147.69700429721</v>
+        <v>13064.6765139718</v>
       </c>
       <c r="R20">
-        <v>12147.69700429721</v>
+        <v>117582.0886257462</v>
       </c>
       <c r="S20">
-        <v>0.02308611420077994</v>
+        <v>0.0234668391016917</v>
       </c>
       <c r="T20">
-        <v>0.02308611420077994</v>
+        <v>0.02346683910169169</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.802623672374</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H21">
-        <v>140.802623672374</v>
+        <v>450.723769</v>
       </c>
       <c r="I21">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J21">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>8030.81925150663</v>
+        <v>8974.5657934718</v>
       </c>
       <c r="R21">
-        <v>8030.81925150663</v>
+        <v>80771.0921412462</v>
       </c>
       <c r="S21">
-        <v>0.01526218593536859</v>
+        <v>0.01612016120397019</v>
       </c>
       <c r="T21">
-        <v>0.01526218593536859</v>
+        <v>0.01612016120397019</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>157.504746332113</v>
+        <v>186.7970273333333</v>
       </c>
       <c r="H22">
-        <v>157.504746332113</v>
+        <v>560.391082</v>
       </c>
       <c r="I22">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="J22">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>25532.85838045659</v>
+        <v>30580.91219910493</v>
       </c>
       <c r="R22">
-        <v>25532.85838045659</v>
+        <v>275228.2097919444</v>
       </c>
       <c r="S22">
-        <v>0.04852396995373231</v>
+        <v>0.05492959166588553</v>
       </c>
       <c r="T22">
-        <v>0.04852396995373231</v>
+        <v>0.05492959166588553</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>157.504746332113</v>
+        <v>186.7970273333333</v>
       </c>
       <c r="H23">
-        <v>157.504746332113</v>
+        <v>560.391082</v>
       </c>
       <c r="I23">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="J23">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>27178.23570029728</v>
+        <v>32233.41428070791</v>
       </c>
       <c r="R23">
-        <v>27178.23570029728</v>
+        <v>290100.7285263712</v>
       </c>
       <c r="S23">
-        <v>0.05165093045462215</v>
+        <v>0.05789782439807115</v>
       </c>
       <c r="T23">
-        <v>0.05165093045462215</v>
+        <v>0.05789782439807115</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>157.504746332113</v>
+        <v>186.7970273333333</v>
       </c>
       <c r="H24">
-        <v>157.504746332113</v>
+        <v>560.391082</v>
       </c>
       <c r="I24">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="J24">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>17525.20520114668</v>
+        <v>20825.65768031682</v>
       </c>
       <c r="R24">
-        <v>17525.20520114668</v>
+        <v>187430.9191228514</v>
       </c>
       <c r="S24">
-        <v>0.0333058100249498</v>
+        <v>0.0374071533610694</v>
       </c>
       <c r="T24">
-        <v>0.0333058100249498</v>
+        <v>0.0374071533610694</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>157.504746332113</v>
+        <v>186.7970273333333</v>
       </c>
       <c r="H25">
-        <v>157.504746332113</v>
+        <v>560.391082</v>
       </c>
       <c r="I25">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="J25">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>13588.6667824685</v>
+        <v>16243.49260277118</v>
       </c>
       <c r="R25">
-        <v>13588.6667824685</v>
+        <v>146191.4334249407</v>
       </c>
       <c r="S25">
-        <v>0.0258246079948684</v>
+        <v>0.02917664489825678</v>
       </c>
       <c r="T25">
-        <v>0.0258246079948684</v>
+        <v>0.02917664489825678</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>157.504746332113</v>
+        <v>186.7970273333333</v>
       </c>
       <c r="H26">
-        <v>157.504746332113</v>
+        <v>560.391082</v>
       </c>
       <c r="I26">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="J26">
-        <v>0.1763779173721895</v>
+        <v>0.1994536332069146</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>8983.441615340991</v>
+        <v>11158.20150031593</v>
       </c>
       <c r="R26">
-        <v>8983.441615340991</v>
+        <v>100423.8135028434</v>
       </c>
       <c r="S26">
-        <v>0.01707259894401684</v>
+        <v>0.02004241888363176</v>
       </c>
       <c r="T26">
-        <v>0.01707259894401684</v>
+        <v>0.02004241888363175</v>
       </c>
     </row>
   </sheetData>
